--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-1.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,14 +476,14 @@
         <v>0.772</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>14.42514029240621</v>
+        <v>14.4251402924067</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.453</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-12.38751047229486</v>
+        <v>-12.38751047229529</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.772</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>14.20037302376045</v>
+        <v>14.20037302376092</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.455</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-12.1598735214012</v>
+        <v>-12.15987352140161</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.772</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>13.88422849585293</v>
+        <v>13.8842284958534</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.458</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-11.85708961222898</v>
+        <v>-11.85708961222938</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.772</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>13.50250673361669</v>
+        <v>13.50250673361715</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.46</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-11.51374810646083</v>
+        <v>-11.51374810646121</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.771</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>13.09599028021834</v>
+        <v>13.09599028021878</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.463</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-11.16435611344011</v>
+        <v>-11.16435611344049</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.77</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>12.68360993822939</v>
+        <v>12.68360993822983</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.466</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-10.81877282821032</v>
+        <v>-10.81877282821069</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.769</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>12.30668683841376</v>
+        <v>12.30668683841418</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.468</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-10.51045919601974</v>
+        <v>-10.51045919602009</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.768</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>11.97132530709021</v>
+        <v>11.97132530709061</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.47</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-10.22006508605503</v>
+        <v>-10.22006508605537</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.767</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>11.64643640834234</v>
+        <v>11.64643640834273</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.472</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-9.927403242028156</v>
+        <v>-9.927403242028493</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.765</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>11.31131915990945</v>
+        <v>11.31131915990983</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.474</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-9.629545907912505</v>
+        <v>-9.629545907912828</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.764</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>10.97439799770252</v>
+        <v>10.97439799770289</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.476</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-9.330363086603056</v>
+        <v>-9.330363086603372</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.762</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>10.64286297340322</v>
+        <v>10.64286297340358</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.479</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-9.037071768386438</v>
+        <v>-9.037071768386738</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.76</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>10.33370708036463</v>
+        <v>10.33370708036498</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.481</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-8.770133502787184</v>
+        <v>-8.77013350278748</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.759</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>10.05155275027215</v>
+        <v>10.05155275027249</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.482</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-8.523574798966997</v>
+        <v>-8.523574798967285</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.757</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>9.799175324956771</v>
+        <v>9.799175324957096</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.484</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-8.303886695279321</v>
+        <v>-8.303886695279601</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.756</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>9.572535788049509</v>
+        <v>9.572535788049828</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.486</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-8.103323517825562</v>
+        <v>-8.103323517825833</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.755</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>9.365008143715725</v>
+        <v>9.365008143716041</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.487</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-7.912765291368479</v>
+        <v>-7.912765291368752</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.754</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>9.159164977360644</v>
+        <v>9.159164977360952</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-7.716455737814696</v>
+        <v>-7.716455737814959</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.752</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>8.949535465118549</v>
+        <v>8.949535465118855</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.49</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-7.526239913029077</v>
+        <v>-7.526239913029328</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.751</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>8.745007622195429</v>
+        <v>8.74500762219572</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.491</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-7.337500888049171</v>
+        <v>-7.33750088804941</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.75</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>8.539154733009129</v>
+        <v>8.539154733009411</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-7.154216352300727</v>
+        <v>-7.154216352300966</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.748</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>8.338598212841283</v>
+        <v>8.338598212841569</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-6.974919558102648</v>
+        <v>-6.974919558102879</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.747</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>8.153256891671525</v>
+        <v>8.1532568916718</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-6.808676884924825</v>
+        <v>-6.808676884925058</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.746</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>7.98025085437436</v>
+        <v>7.980250854374628</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-6.65347367534604</v>
+        <v>-6.653473675346261</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.744</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>7.812129695712821</v>
+        <v>7.812129695713085</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.497</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-6.497419608080159</v>
+        <v>-6.497419608080375</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.743</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>7.642733427852995</v>
+        <v>7.642733427853254</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-6.341673040905174</v>
+        <v>-6.341673040905392</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.742</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>7.472734339010165</v>
+        <v>7.472734339010413</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-6.183154927685419</v>
+        <v>-6.183154927685624</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.741</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>7.298327907450735</v>
+        <v>7.298327907450984</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-6.026740440986731</v>
+        <v>-6.026740440986933</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.74</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>7.12738368470563</v>
+        <v>7.127383684705869</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.502</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-5.872066583414621</v>
+        <v>-5.872066583414817</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.738</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>6.957292413182021</v>
+        <v>6.957292413182254</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.503</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-5.722140651371635</v>
+        <v>-5.722140651371829</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.737</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>6.784991740279594</v>
+        <v>6.784991740279825</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-5.560331864697402</v>
+        <v>-5.560331864697589</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.736</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>6.603575378288778</v>
+        <v>6.603575378289001</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-5.402578287974702</v>
+        <v>-5.402578287974883</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.733</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>6.421083618679055</v>
+        <v>6.421083618679271</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.507</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-5.23280770219661</v>
+        <v>-5.232807702196787</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.733</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>6.23024236457618</v>
+        <v>6.230242364576393</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-5.065326034361059</v>
+        <v>-5.065326034361229</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.732</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>6.048363738296834</v>
+        <v>6.048363738297037</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-4.913341431009536</v>
+        <v>-4.913341431009703</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.729</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>5.881854444525679</v>
+        <v>5.881854444525874</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.511</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-4.764679041786285</v>
+        <v>-4.764679041786443</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.728</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>5.7131178175512</v>
+        <v>5.713117817551391</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.512</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-4.617922716972755</v>
+        <v>-4.617922716972912</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.728</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>5.546559104747532</v>
+        <v>5.546559104747716</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.513</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-4.472057708693643</v>
+        <v>-4.472057708693792</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.725</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>5.383716990453337</v>
+        <v>5.38371699045352</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.515</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-4.33639914625946</v>
+        <v>-4.336399146259603</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.724</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>5.230846984174837</v>
+        <v>5.230846984175012</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.516</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-4.199142505990261</v>
+        <v>-4.199142505990404</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.723</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>5.076259251223951</v>
+        <v>5.076259251224122</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.517</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-4.068928410021886</v>
+        <v>-4.068928410022024</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.722</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>4.931218684588622</v>
+        <v>4.931218684588787</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.518</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-3.94754477281305</v>
+        <v>-3.94754477281318</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.721</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>4.795168293988631</v>
+        <v>4.795168293988795</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.519</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-3.831491129141448</v>
+        <v>-3.831491129141576</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.72</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>4.663418756841442</v>
+        <v>4.663418756841597</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.52</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-3.718839098802184</v>
+        <v>-3.718839098802309</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.719</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>4.535325861391573</v>
+        <v>4.535325861391725</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.521</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-3.610690273521489</v>
+        <v>-3.610690273521611</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.718</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>4.413960363843943</v>
+        <v>4.413960363844094</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.523</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-3.504829202644376</v>
+        <v>-3.504829202644496</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.717</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>4.286885020090312</v>
+        <v>4.286885020090458</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.524</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-3.389291888244745</v>
+        <v>-3.38929188824486</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.716</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>4.160146369114866</v>
+        <v>4.160146369115005</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.525</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-3.28060013437108</v>
+        <v>-3.280600134371191</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-1.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-1.xlsx
@@ -447,23 +447,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Reduction Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Reduction Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
@@ -476,14 +476,14 @@
         <v>0.772</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>14.4251402924067</v>
+        <v>14.42990568051641</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-12.38751047229529</v>
+        <v>12.47467066305537</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -492,17 +492,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>14.20037302376092</v>
+        <v>14.22385233845417</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-12.15987352140161</v>
+        <v>12.15089704323327</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.772</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>13.8842284958534</v>
+        <v>13.92481538201705</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.458</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-11.85708961222938</v>
+        <v>11.81531256999676</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -530,17 +530,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>13.50250673361715</v>
+        <v>13.50503937867699</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-11.51374810646121</v>
+        <v>11.48949157538218</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.771</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>13.09599028021878</v>
+        <v>13.11761236474205</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.463</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-11.16435611344049</v>
+        <v>11.14909420545077</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -568,17 +568,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>12.68360993822983</v>
+        <v>12.71725792885092</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.466</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-10.81877282821069</v>
+        <v>10.80815138315151</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.769</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>12.30668683841418</v>
+        <v>12.33942245982728</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.468</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-10.51045919602009</v>
+        <v>10.49696756700155</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.768</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>11.97132530709061</v>
+        <v>11.97168699603302</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.47</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-10.22006508605537</v>
+        <v>10.20723483942434</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.767</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>11.64643640834273</v>
+        <v>11.69551045007029</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.472</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-9.927403242028493</v>
+        <v>9.935691485935749</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -644,17 +644,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>11.31131915990983</v>
+        <v>11.36774290277509</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.474</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-9.629545907912828</v>
+        <v>9.645038210317527</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.764</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>10.97439799770289</v>
+        <v>11.01818162693947</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-9.330363086603372</v>
+        <v>9.35298322366798</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.762</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>10.64286297340358</v>
+        <v>10.6694854144211</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-9.037071768386738</v>
+        <v>9.029866112863374</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -701,17 +701,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>10.33370708036498</v>
+        <v>10.38391038471087</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-8.77013350278748</v>
+        <v>8.803588040377921</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.759</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>10.05155275027249</v>
+        <v>10.11280052851897</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.482</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-8.523574798967285</v>
+        <v>8.551725701133353</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -739,17 +739,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>9.799175324957096</v>
+        <v>9.851877787812546</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.484</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-8.303886695279601</v>
+        <v>8.33685747650185</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.756</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>9.572535788049828</v>
+        <v>9.624322287623031</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-8.103323517825833</v>
+        <v>8.119021906489541</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.755</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>9.365008143716041</v>
+        <v>9.402613790551733</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-7.912765291368752</v>
+        <v>7.919170571890305</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.754</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>9.159164977360952</v>
+        <v>9.181268647504805</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-7.716455737814959</v>
+        <v>7.754213673083076</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.752</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>8.949535465118855</v>
+        <v>8.958560208276236</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-7.526239913029328</v>
+        <v>7.537039353417459</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.751</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>8.74500762219572</v>
+        <v>8.769218932570372</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
-        <v>0.491</v>
+        <v>0.49</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-7.33750088804941</v>
+        <v>7.363062193681178</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.75</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>8.539154733009411</v>
+        <v>8.575626761170675</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
-        <v>0.493</v>
+        <v>0.492</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-7.154216352300966</v>
+        <v>7.186598929371541</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.748</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>8.338598212841569</v>
+        <v>8.377024789663624</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-6.974919558102879</v>
+        <v>6.999668811122449</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.747</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>8.1532568916718</v>
+        <v>8.200214461708395</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
-        <v>0.495</v>
+        <v>0.494</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-6.808676884925058</v>
+        <v>6.826136033010181</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.746</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>7.980250854374628</v>
+        <v>8.037238857411729</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-6.653473675346261</v>
+        <v>6.674447860944099</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -929,17 +929,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>7.812129695713085</v>
+        <v>7.869230606489041</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-6.497419608080375</v>
+        <v>6.521452884585452</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -948,17 +948,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>7.642733427853254</v>
+        <v>7.684564147903563</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-6.341673040905392</v>
+        <v>6.378925466028941</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.742</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>7.472734339010413</v>
+        <v>7.506264791137227</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-6.183154927685624</v>
+        <v>6.233707576074348</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.741</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>7.298327907450984</v>
+        <v>7.312989845309988</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-6.026740440986933</v>
+        <v>6.063869958442032</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.74</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>7.127383684705869</v>
+        <v>7.126838592018512</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
-        <v>0.502</v>
+        <v>0.501</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-5.872066583414817</v>
+        <v>5.900773874215368</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1024,17 +1024,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>6.957292413182254</v>
+        <v>6.966237813823435</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
-        <v>0.503</v>
+        <v>0.502</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-5.722140651371829</v>
+        <v>5.776438972695175</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.737</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>6.784991740279825</v>
+        <v>6.792206121880506</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
-        <v>0.505</v>
+        <v>0.504</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-5.560331864697589</v>
+        <v>5.587551780094786</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.736</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>6.603575378289001</v>
+        <v>6.620934831707503</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
-        <v>0.506</v>
+        <v>0.505</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-5.402578287974883</v>
+        <v>5.436757365211667</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1081,17 +1081,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.733</v>
+        <v>0.735</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>6.421083618679271</v>
+        <v>6.439874169757867</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-5.232807702196787</v>
+        <v>5.272756552545573</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.733</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>6.230242364576393</v>
+        <v>6.26333723999643</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
-        <v>0.509</v>
+        <v>0.508</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-5.065326034361229</v>
+        <v>5.080501016019134</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.732</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>6.048363738297037</v>
+        <v>6.07078595052449</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
-        <v>0.51</v>
+        <v>0.509</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-4.913341431009703</v>
+        <v>4.925576815032644</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1138,17 +1138,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>5.881854444525874</v>
+        <v>5.901046094954053</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
-        <v>0.511</v>
+        <v>0.51</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-4.764679041786443</v>
+        <v>4.787892144324675</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1157,17 +1157,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.728</v>
+        <v>0.73</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>5.713117817551391</v>
+        <v>5.728188715715892</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v>0.512</v>
+        <v>0.511</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-4.617922716972912</v>
+        <v>4.646492684396684</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.728</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>5.546559104747716</v>
+        <v>5.559279237254112</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
-        <v>0.513</v>
+        <v>0.512</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-4.472057708693792</v>
+        <v>4.508007822227878</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1195,17 +1195,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>5.38371699045352</v>
+        <v>5.399077877991698</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
-        <v>0.515</v>
+        <v>0.513</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-4.336399146259603</v>
+        <v>4.355043181621301</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1214,17 +1214,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.724</v>
+        <v>0.726</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>5.230846984175012</v>
+        <v>5.254451706013808</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
-        <v>0.516</v>
+        <v>0.514</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-4.199142505990404</v>
+        <v>4.236744519233556</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1233,17 +1233,17 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>5.076259251224122</v>
+        <v>5.104508836697153</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
-        <v>0.517</v>
+        <v>0.516</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-4.068928410022024</v>
+        <v>4.098278624483132</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1252,17 +1252,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>4.931218684588787</v>
+        <v>4.952824733346554</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
-        <v>0.518</v>
+        <v>0.517</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-3.94754477281318</v>
+        <v>3.986781465559476</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1271,17 +1271,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>4.795168293988795</v>
+        <v>4.820280054130204</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
-        <v>0.519</v>
+        <v>0.517</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-3.831491129141576</v>
+        <v>3.890616535139556</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1290,17 +1290,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>4.663418756841597</v>
+        <v>4.672281112568985</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
-        <v>0.52</v>
+        <v>0.519</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-3.718839098802309</v>
+        <v>3.765039794565228</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1309,17 +1309,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>4.535325861391725</v>
+        <v>4.542169019842823</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
-        <v>0.521</v>
+        <v>0.519</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-3.610690273521611</v>
+        <v>3.674236511876697</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1328,17 +1328,17 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>4.413960363844094</v>
+        <v>4.426453010857697</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
-        <v>0.523</v>
+        <v>0.521</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-3.504829202644496</v>
+        <v>3.54617794869185</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1347,17 +1347,17 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.717</v>
+        <v>0.718</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>4.286885020090458</v>
+        <v>4.309410706290691</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
-        <v>0.524</v>
+        <v>0.522</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-3.38929188824486</v>
+        <v>3.414007723379224</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1366,17 +1366,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>4.160146369115005</v>
+        <v>4.182204214481912</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
-        <v>0.525</v>
+        <v>0.523</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-3.280600134371191</v>
+        <v>3.316629524188063</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-1.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-CuHCF-1.xlsx
@@ -476,14 +476,14 @@
         <v>0.772</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>14.42990568051641</v>
+        <v>14.43561235339215</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.452</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>12.47467066305537</v>
+        <v>12.42276093237068</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.771</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>14.22385233845417</v>
+        <v>14.22293524197729</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.454</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>12.15089704323327</v>
+        <v>12.18473073167373</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.772</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>13.92481538201705</v>
+        <v>13.9135740786178</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.458</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>11.81531256999676</v>
+        <v>11.85046151509738</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.771</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>13.50503937867699</v>
+        <v>13.52065531560136</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.459</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>11.48949157538218</v>
+        <v>11.49982152940131</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.771</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>13.11761236474205</v>
+        <v>13.12259999878312</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.463</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>11.14909420545077</v>
+        <v>11.14997681474631</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.771</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>12.71725792885092</v>
+        <v>12.71051720244059</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.466</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>10.80815138315151</v>
+        <v>10.81728689044067</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.769</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>12.33942245982728</v>
+        <v>12.34632218967192</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.468</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>10.49696756700155</v>
+        <v>10.50658935218646</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.768</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>11.97168699603302</v>
+        <v>12.01308341069406</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.47</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>10.20723483942434</v>
+        <v>10.22437623349579</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.767</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>11.69551045007029</v>
+        <v>11.68448677546714</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.472</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.935691485935749</v>
+        <v>9.937324496615087</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.766</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>11.36774290277509</v>
+        <v>11.35513650110622</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.474</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>9.645038210317527</v>
+        <v>9.64234102648928</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.764</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>11.01818162693947</v>
+        <v>11.01510992893471</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.477</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>9.35298322366798</v>
+        <v>9.34364204149777</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.762</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>10.6694854144211</v>
+        <v>10.68297382313367</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.478</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9.029866112863374</v>
+        <v>9.047443355399047</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.761</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>10.38391038471087</v>
+        <v>10.3746860022019</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.48</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8.803588040377921</v>
+        <v>8.792743332178919</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.759</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>10.11280052851897</v>
+        <v>10.09303584102245</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.482</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.551725701133353</v>
+        <v>8.539571029022657</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -739,17 +739,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>9.851877787812546</v>
+        <v>9.833482312252722</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.484</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.33685747650185</v>
+        <v>8.326383748570045</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.756</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>9.624322287623031</v>
+        <v>9.612335514368187</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.485</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.119021906489541</v>
+        <v>8.118722007949959</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.755</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>9.402613790551733</v>
+        <v>9.399072956613185</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.486</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>7.919170571890305</v>
+        <v>7.934916361153959</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.754</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>9.181268647504805</v>
+        <v>9.192233243904177</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.488</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>7.754213673083076</v>
+        <v>7.749192820199414</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -815,17 +815,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>8.958560208276236</v>
+        <v>8.982300493174797</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.489</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>7.537039353417459</v>
+        <v>7.547357051148787</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.751</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>8.769218932570372</v>
+        <v>8.773124144002876</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.49</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>7.363062193681178</v>
+        <v>7.366454742470825</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.75</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>8.575626761170675</v>
+        <v>8.571355022546733</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.492</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>7.186598929371541</v>
+        <v>7.184931776255861</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.748</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>8.377024789663624</v>
+        <v>8.371286209417159</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.493</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.999668811122449</v>
+        <v>7.004381617236323</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.747</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>8.200214461708395</v>
+        <v>8.18686852590651</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.494</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>6.826136033010181</v>
+        <v>6.836212717729175</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.746</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>8.037238857411729</v>
+        <v>8.015723553527206</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.495</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.674447860944099</v>
+        <v>6.680228243604808</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.745</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>7.869230606489041</v>
+        <v>7.84459610160531</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.496</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6.521452884585452</v>
+        <v>6.528458748676575</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.744</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>7.684564147903563</v>
+        <v>7.674728006696116</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.498</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6.378925466028941</v>
+        <v>6.367501414459235</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.742</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>7.506264791137227</v>
+        <v>7.505603208988108</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.499</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>6.233707576074348</v>
+        <v>6.218825819990593</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.741</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>7.312989845309988</v>
+        <v>7.328646296753917</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>6.063869958442032</v>
+        <v>6.055645671959228</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.74</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>7.126838592018512</v>
+        <v>7.148839418844743</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.501</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.900773874215368</v>
+        <v>5.896906557601217</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.739</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>6.966237813823435</v>
+        <v>6.981717978337626</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.502</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.776438972695175</v>
+        <v>5.758470275154971</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.737</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>6.792206121880506</v>
+        <v>6.802623548001228</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.504</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.587551780094786</v>
+        <v>5.59040409626529</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.736</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>6.620934831707503</v>
+        <v>6.630362934381002</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.505</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>5.436757365211667</v>
+        <v>5.43401518970798</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.735</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>6.439874169757867</v>
+        <v>6.447215373402208</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.506</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>5.272756552545573</v>
+        <v>5.271199825293218</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.733</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>6.26333723999643</v>
+        <v>6.261365008137252</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
-        <v>0.508</v>
+        <v>0.507</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>5.080501016019134</v>
+        <v>5.093796726817713</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.732</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>6.07078595052449</v>
+        <v>6.0748641159483</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.509</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.925576815032644</v>
+        <v>4.941421508372164</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.73</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>5.901046094954053</v>
+        <v>5.903314074459325</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.51</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.787892144324675</v>
+        <v>4.796153634486848</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.73</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>5.728188715715892</v>
+        <v>5.732949166485441</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.511</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>4.646492684396684</v>
+        <v>4.650712563085201</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.728</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>5.559279237254112</v>
+        <v>5.564615730851969</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.512</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>4.508007822227878</v>
+        <v>4.501801379842495</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.727</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>5.399077877991698</v>
+        <v>5.401701345907894</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.513</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>4.355043181621301</v>
+        <v>4.365267405681656</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.726</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>5.254451706013808</v>
+        <v>5.252272319190271</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.514</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>4.236744519233556</v>
+        <v>4.232011808129724</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.724</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>5.104508836697153</v>
+        <v>5.10221168575622</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.516</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4.098278624483132</v>
+        <v>4.098794296341179</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.723</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>4.952824733346554</v>
+        <v>4.955602105812162</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.517</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>3.986781465559476</v>
+        <v>3.984916020885747</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.722</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>4.820280054130204</v>
+        <v>4.818543629537757</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.517</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>3.890616535139556</v>
+        <v>3.872847655142801</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.721</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>4.672281112568985</v>
+        <v>4.679173041435435</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.519</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>3.765039794565228</v>
+        <v>3.75709829973047</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.72</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>4.542169019842823</v>
+        <v>4.551375800958848</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
-        <v>0.519</v>
+        <v>0.52</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>3.674236511876697</v>
+        <v>3.653138732672802</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.719</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>4.426453010857697</v>
+        <v>4.430241241491474</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.521</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>3.54617794869185</v>
+        <v>3.539776855755402</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.718</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>4.309410706290691</v>
+        <v>4.301363581136573</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.522</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>3.414007723379224</v>
+        <v>3.423683478727161</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.718</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>4.182204214481912</v>
+        <v>4.176779898120877</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.523</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>3.316629524188063</v>
+        <v>3.321121954805838</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
